--- a/docs/metabobank/metadata_excel/MetaboBank_GC-FID-MS_metadata.xlsx
+++ b/docs/metabobank/metadata_excel/MetaboBank_GC-FID-MS_metadata.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848D220B-2FE1-4C7C-A4D2-1E95799659DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E986DA7-5A3D-4AE1-974E-CA54A3CD6DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1362,7 +1362,7 @@
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="7"/>

--- a/docs/metabobank/metadata_excel/MetaboBank_GC-FID-MS_metadata.xlsx
+++ b/docs/metabobank/metadata_excel/MetaboBank_GC-FID-MS_metadata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E986DA7-5A3D-4AE1-974E-CA54A3CD6DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00AC2C2-8E90-4DE6-BA4B-901903DC958F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="3780" windowWidth="43200" windowHeight="23445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="193">
   <si>
     <t>Study Title</t>
   </si>
@@ -618,9 +618,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2024-03-12</t>
-  </si>
-  <si>
     <t>2021-11-09</t>
   </si>
   <si>
@@ -628,6 +625,18 @@
   </si>
   <si>
     <t>2022-08-29</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Parameter Value[Resolution]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Add Parameter Value[Resolution], and modify the order of chromatograhy parameters.</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1125,119 +1134,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="126.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="126.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>190</v>
       </c>
     </row>
@@ -1259,9 +1278,9 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.44140625" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="38.5" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="38.44140625" style="2"/>
+    <col min="1" max="16384" width="38.5" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1279,12 +1298,12 @@
     <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>137</v>
       </c>
@@ -1292,24 +1311,24 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -1320,7 +1339,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
@@ -1331,15 +1350,15 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
@@ -1350,7 +1369,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
@@ -1361,7 +1380,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
@@ -1372,7 +1391,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>135</v>
       </c>
@@ -1383,7 +1402,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>8</v>
       </c>
@@ -1394,7 +1413,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>9</v>
       </c>
@@ -1402,7 +1421,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -1413,7 +1432,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -1424,10 +1443,10 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="11"/>
     </row>
-    <row r="24" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>12</v>
       </c>
@@ -1450,7 +1469,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>13</v>
       </c>
@@ -1473,7 +1492,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
@@ -1484,7 +1503,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>15</v>
       </c>
@@ -1501,7 +1520,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>16</v>
       </c>
@@ -1512,7 +1531,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>17</v>
       </c>
@@ -1523,35 +1542,35 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>23</v>
       </c>
@@ -1562,7 +1581,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>24</v>
       </c>
@@ -1575,7 +1594,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>142</v>
       </c>
@@ -1583,19 +1602,19 @@
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="7"/>
     </row>
-    <row r="43" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>173</v>
       </c>
       <c r="B43" s="17"/>
     </row>
-    <row r="44" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
         <v>172</v>
       </c>
@@ -1606,12 +1625,12 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>27</v>
       </c>
@@ -1660,64 +1679,67 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AK105"/>
+  <dimension ref="A1:AL105"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.75" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="50.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="35" style="2" customWidth="1"/>
-    <col min="18" max="18" width="23.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="36.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="31.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="31.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="34.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="31.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="37.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="29.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="45" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="24.88671875" style="2"/>
+    <col min="9" max="9" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="50.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="35" style="2" customWidth="1"/>
+    <col min="17" max="17" width="35" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35" style="2" customWidth="1"/>
+    <col min="19" max="19" width="23.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="33.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="36.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="31.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="34.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="32.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="37.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="45" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="24.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
@@ -1758,79 +1780,82 @@
         <v>38</v>
       </c>
       <c r="N4" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="P4" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="W4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="X4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="Y4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="Z4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AB4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AC4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AD4" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AE4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AF4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AF4" s="4" t="s">
+      <c r="AG4" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AH4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AI4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AI4" s="4" t="s">
+      <c r="AJ4" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="AJ4" s="4" t="s">
+      <c r="AK4" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AK4" s="4" t="s">
+      <c r="AL4" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
@@ -1856,10 +1881,10 @@
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
-      <c r="T5" s="7" t="s">
+      <c r="T5" s="7"/>
+      <c r="U5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="U5" s="7"/>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
@@ -1868,20 +1893,21 @@
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
-      <c r="AD5" s="7" t="s">
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE5" s="7"/>
       <c r="AF5" s="7"/>
-      <c r="AG5" s="7" t="s">
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AH5" s="7"/>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
       <c r="AK5" s="7"/>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL5" s="7"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
@@ -1907,10 +1933,10 @@
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
-      <c r="T6" s="7" t="s">
+      <c r="T6" s="7"/>
+      <c r="U6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
@@ -1919,20 +1945,21 @@
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
-      <c r="AD6" s="7" t="s">
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
-      <c r="AG6" s="7" t="s">
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AH6" s="7"/>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL6" s="7"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
@@ -1958,10 +1985,10 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
-      <c r="T7" s="7" t="s">
+      <c r="T7" s="7"/>
+      <c r="U7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
@@ -1970,20 +1997,21 @@
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
-      <c r="AD7" s="7" t="s">
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
-      <c r="AG7" s="7" t="s">
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AH7" s="7"/>
       <c r="AI7" s="7"/>
       <c r="AJ7" s="7"/>
       <c r="AK7" s="7"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL7" s="7"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -2021,8 +2049,9 @@
       <c r="AI8" s="7"/>
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL8" s="7"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -2060,8 +2089,9 @@
       <c r="AI9" s="7"/>
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7"/>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL9" s="7"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -2099,8 +2129,9 @@
       <c r="AI10" s="7"/>
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL10" s="7"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -2138,8 +2169,9 @@
       <c r="AI11" s="7"/>
       <c r="AJ11" s="7"/>
       <c r="AK11" s="7"/>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL11" s="7"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
@@ -2177,8 +2209,9 @@
       <c r="AI12" s="7"/>
       <c r="AJ12" s="7"/>
       <c r="AK12" s="7"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL12" s="7"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -2216,8 +2249,9 @@
       <c r="AI13" s="7"/>
       <c r="AJ13" s="7"/>
       <c r="AK13" s="7"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL13" s="7"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -2255,8 +2289,9 @@
       <c r="AI14" s="7"/>
       <c r="AJ14" s="7"/>
       <c r="AK14" s="7"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL14" s="7"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -2294,8 +2329,9 @@
       <c r="AI15" s="7"/>
       <c r="AJ15" s="7"/>
       <c r="AK15" s="7"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL15" s="7"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -2333,8 +2369,9 @@
       <c r="AI16" s="7"/>
       <c r="AJ16" s="7"/>
       <c r="AK16" s="7"/>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL16" s="7"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
@@ -2372,8 +2409,9 @@
       <c r="AI17" s="7"/>
       <c r="AJ17" s="7"/>
       <c r="AK17" s="7"/>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL17" s="7"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
@@ -2411,8 +2449,9 @@
       <c r="AI18" s="7"/>
       <c r="AJ18" s="7"/>
       <c r="AK18" s="7"/>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL18" s="7"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
@@ -2450,8 +2489,9 @@
       <c r="AI19" s="7"/>
       <c r="AJ19" s="7"/>
       <c r="AK19" s="7"/>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL19" s="7"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
@@ -2489,8 +2529,9 @@
       <c r="AI20" s="7"/>
       <c r="AJ20" s="7"/>
       <c r="AK20" s="7"/>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL20" s="7"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
@@ -2528,8 +2569,9 @@
       <c r="AI21" s="7"/>
       <c r="AJ21" s="7"/>
       <c r="AK21" s="7"/>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL21" s="7"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
@@ -2567,8 +2609,9 @@
       <c r="AI22" s="7"/>
       <c r="AJ22" s="7"/>
       <c r="AK22" s="7"/>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL22" s="7"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
@@ -2606,8 +2649,9 @@
       <c r="AI23" s="7"/>
       <c r="AJ23" s="7"/>
       <c r="AK23" s="7"/>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL23" s="7"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
@@ -2645,8 +2689,9 @@
       <c r="AI24" s="7"/>
       <c r="AJ24" s="7"/>
       <c r="AK24" s="7"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL24" s="7"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
@@ -2684,8 +2729,9 @@
       <c r="AI25" s="7"/>
       <c r="AJ25" s="7"/>
       <c r="AK25" s="7"/>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL25" s="7"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
@@ -2723,8 +2769,9 @@
       <c r="AI26" s="7"/>
       <c r="AJ26" s="7"/>
       <c r="AK26" s="7"/>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL26" s="7"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
@@ -2762,8 +2809,9 @@
       <c r="AI27" s="7"/>
       <c r="AJ27" s="7"/>
       <c r="AK27" s="7"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL27" s="7"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
@@ -2801,8 +2849,9 @@
       <c r="AI28" s="7"/>
       <c r="AJ28" s="7"/>
       <c r="AK28" s="7"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL28" s="7"/>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
@@ -2840,8 +2889,9 @@
       <c r="AI29" s="7"/>
       <c r="AJ29" s="7"/>
       <c r="AK29" s="7"/>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL29" s="7"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
@@ -2879,8 +2929,9 @@
       <c r="AI30" s="7"/>
       <c r="AJ30" s="7"/>
       <c r="AK30" s="7"/>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL30" s="7"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
@@ -2918,8 +2969,9 @@
       <c r="AI31" s="7"/>
       <c r="AJ31" s="7"/>
       <c r="AK31" s="7"/>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL31" s="7"/>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
@@ -2957,8 +3009,9 @@
       <c r="AI32" s="7"/>
       <c r="AJ32" s="7"/>
       <c r="AK32" s="7"/>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL32" s="7"/>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
@@ -2996,8 +3049,9 @@
       <c r="AI33" s="7"/>
       <c r="AJ33" s="7"/>
       <c r="AK33" s="7"/>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL33" s="7"/>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
@@ -3035,8 +3089,9 @@
       <c r="AI34" s="7"/>
       <c r="AJ34" s="7"/>
       <c r="AK34" s="7"/>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL34" s="7"/>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
@@ -3074,8 +3129,9 @@
       <c r="AI35" s="7"/>
       <c r="AJ35" s="7"/>
       <c r="AK35" s="7"/>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL35" s="7"/>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
@@ -3113,8 +3169,9 @@
       <c r="AI36" s="7"/>
       <c r="AJ36" s="7"/>
       <c r="AK36" s="7"/>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL36" s="7"/>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
@@ -3152,8 +3209,9 @@
       <c r="AI37" s="7"/>
       <c r="AJ37" s="7"/>
       <c r="AK37" s="7"/>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL37" s="7"/>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="8"/>
@@ -3191,8 +3249,9 @@
       <c r="AI38" s="7"/>
       <c r="AJ38" s="7"/>
       <c r="AK38" s="7"/>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL38" s="7"/>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
@@ -3230,8 +3289,9 @@
       <c r="AI39" s="7"/>
       <c r="AJ39" s="7"/>
       <c r="AK39" s="7"/>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL39" s="7"/>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="8"/>
@@ -3269,8 +3329,9 @@
       <c r="AI40" s="7"/>
       <c r="AJ40" s="7"/>
       <c r="AK40" s="7"/>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL40" s="7"/>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
@@ -3308,8 +3369,9 @@
       <c r="AI41" s="7"/>
       <c r="AJ41" s="7"/>
       <c r="AK41" s="7"/>
-    </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL41" s="7"/>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="8"/>
@@ -3347,8 +3409,9 @@
       <c r="AI42" s="7"/>
       <c r="AJ42" s="7"/>
       <c r="AK42" s="7"/>
-    </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL42" s="7"/>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
@@ -3386,8 +3449,9 @@
       <c r="AI43" s="7"/>
       <c r="AJ43" s="7"/>
       <c r="AK43" s="7"/>
-    </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL43" s="7"/>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="8"/>
@@ -3425,8 +3489,9 @@
       <c r="AI44" s="7"/>
       <c r="AJ44" s="7"/>
       <c r="AK44" s="7"/>
-    </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL44" s="7"/>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
@@ -3464,8 +3529,9 @@
       <c r="AI45" s="7"/>
       <c r="AJ45" s="7"/>
       <c r="AK45" s="7"/>
-    </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL45" s="7"/>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="8"/>
@@ -3503,8 +3569,9 @@
       <c r="AI46" s="7"/>
       <c r="AJ46" s="7"/>
       <c r="AK46" s="7"/>
-    </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL46" s="7"/>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="8"/>
@@ -3542,8 +3609,9 @@
       <c r="AI47" s="7"/>
       <c r="AJ47" s="7"/>
       <c r="AK47" s="7"/>
-    </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL47" s="7"/>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="8"/>
@@ -3581,8 +3649,9 @@
       <c r="AI48" s="7"/>
       <c r="AJ48" s="7"/>
       <c r="AK48" s="7"/>
-    </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL48" s="7"/>
+    </row>
+    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="8"/>
@@ -3620,8 +3689,9 @@
       <c r="AI49" s="7"/>
       <c r="AJ49" s="7"/>
       <c r="AK49" s="7"/>
-    </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL49" s="7"/>
+    </row>
+    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="8"/>
@@ -3659,8 +3729,9 @@
       <c r="AI50" s="7"/>
       <c r="AJ50" s="7"/>
       <c r="AK50" s="7"/>
-    </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL50" s="7"/>
+    </row>
+    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
@@ -3698,8 +3769,9 @@
       <c r="AI51" s="7"/>
       <c r="AJ51" s="7"/>
       <c r="AK51" s="7"/>
-    </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL51" s="7"/>
+    </row>
+    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="8"/>
@@ -3737,8 +3809,9 @@
       <c r="AI52" s="7"/>
       <c r="AJ52" s="7"/>
       <c r="AK52" s="7"/>
-    </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL52" s="7"/>
+    </row>
+    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="8"/>
@@ -3776,8 +3849,9 @@
       <c r="AI53" s="7"/>
       <c r="AJ53" s="7"/>
       <c r="AK53" s="7"/>
-    </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL53" s="7"/>
+    </row>
+    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="8"/>
@@ -3815,8 +3889,9 @@
       <c r="AI54" s="7"/>
       <c r="AJ54" s="7"/>
       <c r="AK54" s="7"/>
-    </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL54" s="7"/>
+    </row>
+    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="8"/>
@@ -3854,8 +3929,9 @@
       <c r="AI55" s="7"/>
       <c r="AJ55" s="7"/>
       <c r="AK55" s="7"/>
-    </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL55" s="7"/>
+    </row>
+    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="8"/>
@@ -3893,8 +3969,9 @@
       <c r="AI56" s="7"/>
       <c r="AJ56" s="7"/>
       <c r="AK56" s="7"/>
-    </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL56" s="7"/>
+    </row>
+    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="8"/>
@@ -3932,8 +4009,9 @@
       <c r="AI57" s="7"/>
       <c r="AJ57" s="7"/>
       <c r="AK57" s="7"/>
-    </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL57" s="7"/>
+    </row>
+    <row r="58" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="8"/>
@@ -3971,8 +4049,9 @@
       <c r="AI58" s="7"/>
       <c r="AJ58" s="7"/>
       <c r="AK58" s="7"/>
-    </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL58" s="7"/>
+    </row>
+    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="8"/>
@@ -4010,8 +4089,9 @@
       <c r="AI59" s="7"/>
       <c r="AJ59" s="7"/>
       <c r="AK59" s="7"/>
-    </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL59" s="7"/>
+    </row>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="8"/>
@@ -4049,8 +4129,9 @@
       <c r="AI60" s="7"/>
       <c r="AJ60" s="7"/>
       <c r="AK60" s="7"/>
-    </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL60" s="7"/>
+    </row>
+    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
@@ -4088,8 +4169,9 @@
       <c r="AI61" s="7"/>
       <c r="AJ61" s="7"/>
       <c r="AK61" s="7"/>
-    </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL61" s="7"/>
+    </row>
+    <row r="62" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="8"/>
@@ -4127,8 +4209,9 @@
       <c r="AI62" s="7"/>
       <c r="AJ62" s="7"/>
       <c r="AK62" s="7"/>
-    </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL62" s="7"/>
+    </row>
+    <row r="63" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="8"/>
@@ -4166,8 +4249,9 @@
       <c r="AI63" s="7"/>
       <c r="AJ63" s="7"/>
       <c r="AK63" s="7"/>
-    </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL63" s="7"/>
+    </row>
+    <row r="64" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="8"/>
@@ -4205,8 +4289,9 @@
       <c r="AI64" s="7"/>
       <c r="AJ64" s="7"/>
       <c r="AK64" s="7"/>
-    </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL64" s="7"/>
+    </row>
+    <row r="65" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="8"/>
@@ -4244,8 +4329,9 @@
       <c r="AI65" s="7"/>
       <c r="AJ65" s="7"/>
       <c r="AK65" s="7"/>
-    </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL65" s="7"/>
+    </row>
+    <row r="66" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="9"/>
@@ -4283,8 +4369,9 @@
       <c r="AI66" s="7"/>
       <c r="AJ66" s="7"/>
       <c r="AK66" s="7"/>
-    </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL66" s="7"/>
+    </row>
+    <row r="67" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="9"/>
@@ -4322,8 +4409,9 @@
       <c r="AI67" s="7"/>
       <c r="AJ67" s="7"/>
       <c r="AK67" s="7"/>
-    </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL67" s="7"/>
+    </row>
+    <row r="68" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="9"/>
@@ -4361,8 +4449,9 @@
       <c r="AI68" s="7"/>
       <c r="AJ68" s="7"/>
       <c r="AK68" s="7"/>
-    </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL68" s="7"/>
+    </row>
+    <row r="69" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="9"/>
@@ -4400,8 +4489,9 @@
       <c r="AI69" s="7"/>
       <c r="AJ69" s="7"/>
       <c r="AK69" s="7"/>
-    </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL69" s="7"/>
+    </row>
+    <row r="70" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="9"/>
@@ -4439,8 +4529,9 @@
       <c r="AI70" s="7"/>
       <c r="AJ70" s="7"/>
       <c r="AK70" s="7"/>
-    </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL70" s="7"/>
+    </row>
+    <row r="71" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="9"/>
@@ -4478,8 +4569,9 @@
       <c r="AI71" s="7"/>
       <c r="AJ71" s="7"/>
       <c r="AK71" s="7"/>
-    </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL71" s="7"/>
+    </row>
+    <row r="72" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="9"/>
@@ -4517,8 +4609,9 @@
       <c r="AI72" s="7"/>
       <c r="AJ72" s="7"/>
       <c r="AK72" s="7"/>
-    </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL72" s="7"/>
+    </row>
+    <row r="73" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="9"/>
@@ -4556,8 +4649,9 @@
       <c r="AI73" s="7"/>
       <c r="AJ73" s="7"/>
       <c r="AK73" s="7"/>
-    </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL73" s="7"/>
+    </row>
+    <row r="74" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="9"/>
@@ -4595,8 +4689,9 @@
       <c r="AI74" s="7"/>
       <c r="AJ74" s="7"/>
       <c r="AK74" s="7"/>
-    </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL74" s="7"/>
+    </row>
+    <row r="75" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="9"/>
@@ -4634,8 +4729,9 @@
       <c r="AI75" s="7"/>
       <c r="AJ75" s="7"/>
       <c r="AK75" s="7"/>
-    </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL75" s="7"/>
+    </row>
+    <row r="76" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="9"/>
@@ -4673,8 +4769,9 @@
       <c r="AI76" s="7"/>
       <c r="AJ76" s="7"/>
       <c r="AK76" s="7"/>
-    </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL76" s="7"/>
+    </row>
+    <row r="77" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="9"/>
@@ -4712,8 +4809,9 @@
       <c r="AI77" s="7"/>
       <c r="AJ77" s="7"/>
       <c r="AK77" s="7"/>
-    </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL77" s="7"/>
+    </row>
+    <row r="78" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="9"/>
@@ -4751,8 +4849,9 @@
       <c r="AI78" s="7"/>
       <c r="AJ78" s="7"/>
       <c r="AK78" s="7"/>
-    </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL78" s="7"/>
+    </row>
+    <row r="79" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="9"/>
@@ -4790,8 +4889,9 @@
       <c r="AI79" s="7"/>
       <c r="AJ79" s="7"/>
       <c r="AK79" s="7"/>
-    </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL79" s="7"/>
+    </row>
+    <row r="80" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="9"/>
@@ -4829,8 +4929,9 @@
       <c r="AI80" s="7"/>
       <c r="AJ80" s="7"/>
       <c r="AK80" s="7"/>
-    </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL80" s="7"/>
+    </row>
+    <row r="81" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="9"/>
@@ -4868,8 +4969,9 @@
       <c r="AI81" s="7"/>
       <c r="AJ81" s="7"/>
       <c r="AK81" s="7"/>
-    </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL81" s="7"/>
+    </row>
+    <row r="82" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="9"/>
@@ -4907,8 +5009,9 @@
       <c r="AI82" s="7"/>
       <c r="AJ82" s="7"/>
       <c r="AK82" s="7"/>
-    </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL82" s="7"/>
+    </row>
+    <row r="83" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="9"/>
@@ -4946,8 +5049,9 @@
       <c r="AI83" s="7"/>
       <c r="AJ83" s="7"/>
       <c r="AK83" s="7"/>
-    </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL83" s="7"/>
+    </row>
+    <row r="84" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="9"/>
@@ -4985,8 +5089,9 @@
       <c r="AI84" s="7"/>
       <c r="AJ84" s="7"/>
       <c r="AK84" s="7"/>
-    </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL84" s="7"/>
+    </row>
+    <row r="85" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="9"/>
@@ -5024,8 +5129,9 @@
       <c r="AI85" s="7"/>
       <c r="AJ85" s="7"/>
       <c r="AK85" s="7"/>
-    </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL85" s="7"/>
+    </row>
+    <row r="86" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="9"/>
@@ -5063,8 +5169,9 @@
       <c r="AI86" s="7"/>
       <c r="AJ86" s="7"/>
       <c r="AK86" s="7"/>
-    </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL86" s="7"/>
+    </row>
+    <row r="87" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="9"/>
@@ -5102,8 +5209,9 @@
       <c r="AI87" s="7"/>
       <c r="AJ87" s="7"/>
       <c r="AK87" s="7"/>
-    </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL87" s="7"/>
+    </row>
+    <row r="88" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="9"/>
@@ -5141,8 +5249,9 @@
       <c r="AI88" s="7"/>
       <c r="AJ88" s="7"/>
       <c r="AK88" s="7"/>
-    </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL88" s="7"/>
+    </row>
+    <row r="89" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="9"/>
@@ -5180,8 +5289,9 @@
       <c r="AI89" s="7"/>
       <c r="AJ89" s="7"/>
       <c r="AK89" s="7"/>
-    </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL89" s="7"/>
+    </row>
+    <row r="90" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="9"/>
@@ -5219,8 +5329,9 @@
       <c r="AI90" s="7"/>
       <c r="AJ90" s="7"/>
       <c r="AK90" s="7"/>
-    </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL90" s="7"/>
+    </row>
+    <row r="91" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="9"/>
@@ -5258,8 +5369,9 @@
       <c r="AI91" s="7"/>
       <c r="AJ91" s="7"/>
       <c r="AK91" s="7"/>
-    </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL91" s="7"/>
+    </row>
+    <row r="92" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="9"/>
@@ -5297,8 +5409,9 @@
       <c r="AI92" s="7"/>
       <c r="AJ92" s="7"/>
       <c r="AK92" s="7"/>
-    </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL92" s="7"/>
+    </row>
+    <row r="93" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="9"/>
@@ -5336,8 +5449,9 @@
       <c r="AI93" s="7"/>
       <c r="AJ93" s="7"/>
       <c r="AK93" s="7"/>
-    </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL93" s="7"/>
+    </row>
+    <row r="94" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="9"/>
@@ -5375,8 +5489,9 @@
       <c r="AI94" s="7"/>
       <c r="AJ94" s="7"/>
       <c r="AK94" s="7"/>
-    </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL94" s="7"/>
+    </row>
+    <row r="95" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="9"/>
@@ -5414,8 +5529,9 @@
       <c r="AI95" s="7"/>
       <c r="AJ95" s="7"/>
       <c r="AK95" s="7"/>
-    </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL95" s="7"/>
+    </row>
+    <row r="96" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="9"/>
@@ -5453,8 +5569,9 @@
       <c r="AI96" s="7"/>
       <c r="AJ96" s="7"/>
       <c r="AK96" s="7"/>
-    </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL96" s="7"/>
+    </row>
+    <row r="97" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="9"/>
@@ -5492,8 +5609,9 @@
       <c r="AI97" s="7"/>
       <c r="AJ97" s="7"/>
       <c r="AK97" s="7"/>
-    </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL97" s="7"/>
+    </row>
+    <row r="98" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="9"/>
@@ -5531,8 +5649,9 @@
       <c r="AI98" s="7"/>
       <c r="AJ98" s="7"/>
       <c r="AK98" s="7"/>
-    </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL98" s="7"/>
+    </row>
+    <row r="99" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="9"/>
@@ -5570,8 +5689,9 @@
       <c r="AI99" s="7"/>
       <c r="AJ99" s="7"/>
       <c r="AK99" s="7"/>
-    </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL99" s="7"/>
+    </row>
+    <row r="100" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="9"/>
@@ -5609,8 +5729,9 @@
       <c r="AI100" s="7"/>
       <c r="AJ100" s="7"/>
       <c r="AK100" s="7"/>
-    </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL100" s="7"/>
+    </row>
+    <row r="101" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="9"/>
@@ -5648,8 +5769,9 @@
       <c r="AI101" s="7"/>
       <c r="AJ101" s="7"/>
       <c r="AK101" s="7"/>
-    </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL101" s="7"/>
+    </row>
+    <row r="102" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="9"/>
@@ -5687,8 +5809,9 @@
       <c r="AI102" s="7"/>
       <c r="AJ102" s="7"/>
       <c r="AK102" s="7"/>
-    </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL102" s="7"/>
+    </row>
+    <row r="103" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="9"/>
@@ -5726,8 +5849,9 @@
       <c r="AI103" s="7"/>
       <c r="AJ103" s="7"/>
       <c r="AK103" s="7"/>
-    </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL103" s="7"/>
+    </row>
+    <row r="104" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="9"/>
@@ -5765,8 +5889,9 @@
       <c r="AI104" s="7"/>
       <c r="AJ104" s="7"/>
       <c r="AK104" s="7"/>
-    </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL104" s="7"/>
+    </row>
+    <row r="105" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="9"/>
@@ -5804,6 +5929,7 @@
       <c r="AI105" s="7"/>
       <c r="AJ105" s="7"/>
       <c r="AK105" s="7"/>
+      <c r="AL105" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5823,15 +5949,15 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="96.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="96.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -5842,7 +5968,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
@@ -5853,7 +5979,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>62</v>
       </c>
@@ -5864,7 +5990,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>86</v>
       </c>
@@ -5875,7 +6001,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>157</v>
       </c>
@@ -5886,7 +6012,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>158</v>
       </c>
@@ -5897,7 +6023,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>159</v>
       </c>
@@ -5908,7 +6034,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>160</v>
       </c>
@@ -5919,7 +6045,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>161</v>
       </c>
@@ -5930,7 +6056,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>64</v>
       </c>
@@ -5941,7 +6067,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>66</v>
       </c>
@@ -5952,7 +6078,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>68</v>
       </c>
@@ -5963,7 +6089,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>70</v>
       </c>
@@ -5974,7 +6100,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>72</v>
       </c>
@@ -5985,7 +6111,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
@@ -5996,7 +6122,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>76</v>
       </c>
@@ -6007,7 +6133,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>78</v>
       </c>
@@ -6018,7 +6144,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>80</v>
       </c>
@@ -6029,7 +6155,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>82</v>
       </c>
@@ -6040,7 +6166,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>84</v>
       </c>
@@ -6051,7 +6177,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>88</v>
       </c>
@@ -6062,7 +6188,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>91</v>
       </c>
@@ -6073,7 +6199,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>162</v>
       </c>
@@ -6084,7 +6210,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>163</v>
       </c>
@@ -6095,7 +6221,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>103</v>
       </c>
@@ -6103,7 +6229,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>105</v>
       </c>
@@ -6111,7 +6237,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>107</v>
       </c>
@@ -6119,57 +6245,57 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>87</v>
       </c>

--- a/docs/metabobank/metadata_excel/MetaboBank_GC-FID-MS_metadata.xlsx
+++ b/docs/metabobank/metadata_excel/MetaboBank_GC-FID-MS_metadata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00AC2C2-8E90-4DE6-BA4B-901903DC958F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA16F22-24D7-4D35-BAA9-5EEBDDAF5A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="3780" windowWidth="43200" windowHeight="23445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="43200" windowHeight="23445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
@@ -589,10 +589,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Chromatography instrument;Autosampler model;Column model;Column type;Guard column;Detector;Temperature</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Scan polarity;Scan m/z range;Instrument;Ion source;Mass analyzer</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -636,6 +632,10 @@
   </si>
   <si>
     <t>Add Parameter Value[Resolution], and modify the order of chromatograhy parameters.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chromatography instrument;Autosampler model;Column model;Column type;Resolution;Temperature;Guard column;Detector;Temperature</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="5" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1220,7 +1220,7 @@
         <v>154</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1233,31 +1233,31 @@
         <v>156</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -1276,7 +1276,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.5" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1512,10 +1514,10 @@
         <v>133</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -1780,13 +1782,13 @@
         <v>38</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O4" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="P4" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>39</v>
@@ -6119,7 +6121,7 @@
         <v>92</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">

--- a/docs/metabobank/metadata_excel/MetaboBank_GC-FID-MS_metadata.xlsx
+++ b/docs/metabobank/metadata_excel/MetaboBank_GC-FID-MS_metadata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA16F22-24D7-4D35-BAA9-5EEBDDAF5A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4819D4EE-CDD7-4217-9555-D2E65ECC932A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="43200" windowHeight="23445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13050" yWindow="1560" windowWidth="43200" windowHeight="23445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
@@ -635,7 +635,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Chromatography instrument;Autosampler model;Column model;Column type;Resolution;Temperature;Guard column;Detector;Temperature</t>
+    <t>Chromatography instrument;Autosampler model;Column model;Column type;Resolution;Temperature;Guard column;Detector</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>

--- a/docs/metabobank/metadata_excel/MetaboBank_GC-FID-MS_metadata.xlsx
+++ b/docs/metabobank/metadata_excel/MetaboBank_GC-FID-MS_metadata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4819D4EE-CDD7-4217-9555-D2E65ECC932A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65DB775-9659-4AF1-B9C6-8EB9DAD63C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13050" yWindow="1560" windowWidth="43200" windowHeight="23445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="194">
   <si>
     <t>Study Title</t>
   </si>
@@ -627,15 +627,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Parameter Value[Resolution]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Add Parameter Value[Resolution], and modify the order of chromatograhy parameters.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Chromatography instrument;Autosampler model;Column model;Column type;Resolution;Temperature;Guard column;Detector</t>
+    <t>Chromatography instrument;Autosampler model;Column model;Column type;Temperature;Guard column;Detector</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Remove Parameter Value[Resolution]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2026-02-20</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1134,101 +1138,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="126.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.875" style="2"/>
+    <col min="1" max="1" width="126.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>156</v>
       </c>
@@ -1236,7 +1238,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>180</v>
       </c>
@@ -1244,7 +1246,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>182</v>
       </c>
@@ -1252,12 +1254,20 @@
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -1277,12 +1287,12 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.5" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="38.44140625" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="38.5" style="2"/>
+    <col min="1" max="16384" width="38.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1300,12 +1310,12 @@
     <row r="3" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>137</v>
       </c>
@@ -1313,24 +1323,24 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -1341,7 +1351,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
@@ -1352,15 +1362,15 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
@@ -1371,7 +1381,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
@@ -1382,7 +1392,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
@@ -1393,7 +1403,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>135</v>
       </c>
@@ -1404,7 +1414,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>8</v>
       </c>
@@ -1415,7 +1425,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>9</v>
       </c>
@@ -1423,7 +1433,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -1434,7 +1444,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -1445,10 +1455,10 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
     </row>
-    <row r="24" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>12</v>
       </c>
@@ -1471,7 +1481,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>13</v>
       </c>
@@ -1494,7 +1504,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
@@ -1505,7 +1515,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>15</v>
       </c>
@@ -1514,7 +1524,7 @@
         <v>133</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>179</v>
@@ -1522,7 +1532,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>16</v>
       </c>
@@ -1533,7 +1543,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>17</v>
       </c>
@@ -1544,35 +1554,35 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>23</v>
       </c>
@@ -1583,7 +1593,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>24</v>
       </c>
@@ -1596,7 +1606,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>142</v>
       </c>
@@ -1604,19 +1614,19 @@
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="7"/>
     </row>
-    <row r="43" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>173</v>
       </c>
       <c r="B43" s="17"/>
     </row>
-    <row r="44" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>172</v>
       </c>
@@ -1627,12 +1637,12 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>27</v>
       </c>
@@ -1681,67 +1691,67 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AL105"/>
+  <dimension ref="A1:AK105"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O71" sqref="O71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="50.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="35" style="2" customWidth="1"/>
-    <col min="17" max="17" width="35" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="35" style="2" customWidth="1"/>
-    <col min="19" max="19" width="23.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="33.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="36.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="31.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="31.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="34.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="32.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="37.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="29.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="45" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="28.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="24.875" style="2"/>
+    <col min="9" max="9" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="50.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="35" style="2" customWidth="1"/>
+    <col min="16" max="16" width="35" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35" style="2" customWidth="1"/>
+    <col min="18" max="18" width="23.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="36.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="34.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="31.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="37.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="29.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="45" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="24.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
@@ -1782,82 +1792,79 @@
         <v>38</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="T4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="U4" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="V4" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AA4" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="AB4" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="AC4" s="4" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
       <c r="AE4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="AH4" s="4" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="AI4" s="4" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="AJ4" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK4" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL4" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
@@ -1883,10 +1890,10 @@
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7" t="s">
+      <c r="T5" s="7" t="s">
         <v>56</v>
       </c>
+      <c r="U5" s="7"/>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
@@ -1895,21 +1902,20 @@
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7" t="s">
+      <c r="AD5" s="7" t="s">
         <v>57</v>
       </c>
+      <c r="AE5" s="7"/>
       <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7" t="s">
+      <c r="AG5" s="7" t="s">
         <v>58</v>
       </c>
+      <c r="AH5" s="7"/>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
       <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
@@ -1935,10 +1941,10 @@
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7" t="s">
+      <c r="T6" s="7" t="s">
         <v>56</v>
       </c>
+      <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
@@ -1947,21 +1953,20 @@
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7" t="s">
+      <c r="AD6" s="7" t="s">
         <v>57</v>
       </c>
+      <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7" t="s">
+      <c r="AG6" s="7" t="s">
         <v>58</v>
       </c>
+      <c r="AH6" s="7"/>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
@@ -1987,10 +1992,10 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7" t="s">
+      <c r="T7" s="7" t="s">
         <v>56</v>
       </c>
+      <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
@@ -1999,21 +2004,20 @@
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7" t="s">
+      <c r="AD7" s="7" t="s">
         <v>57</v>
       </c>
+      <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7" t="s">
+      <c r="AG7" s="7" t="s">
         <v>58</v>
       </c>
+      <c r="AH7" s="7"/>
       <c r="AI7" s="7"/>
       <c r="AJ7" s="7"/>
       <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -2051,9 +2055,8 @@
       <c r="AI8" s="7"/>
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7"/>
-      <c r="AL8" s="7"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -2091,9 +2094,8 @@
       <c r="AI9" s="7"/>
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -2131,9 +2133,8 @@
       <c r="AI10" s="7"/>
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -2171,9 +2172,8 @@
       <c r="AI11" s="7"/>
       <c r="AJ11" s="7"/>
       <c r="AK11" s="7"/>
-      <c r="AL11" s="7"/>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
@@ -2211,9 +2211,8 @@
       <c r="AI12" s="7"/>
       <c r="AJ12" s="7"/>
       <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -2251,9 +2250,8 @@
       <c r="AI13" s="7"/>
       <c r="AJ13" s="7"/>
       <c r="AK13" s="7"/>
-      <c r="AL13" s="7"/>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
@@ -2291,9 +2289,8 @@
       <c r="AI14" s="7"/>
       <c r="AJ14" s="7"/>
       <c r="AK14" s="7"/>
-      <c r="AL14" s="7"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
@@ -2331,9 +2328,8 @@
       <c r="AI15" s="7"/>
       <c r="AJ15" s="7"/>
       <c r="AK15" s="7"/>
-      <c r="AL15" s="7"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
@@ -2371,9 +2367,8 @@
       <c r="AI16" s="7"/>
       <c r="AJ16" s="7"/>
       <c r="AK16" s="7"/>
-      <c r="AL16" s="7"/>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
@@ -2411,9 +2406,8 @@
       <c r="AI17" s="7"/>
       <c r="AJ17" s="7"/>
       <c r="AK17" s="7"/>
-      <c r="AL17" s="7"/>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
@@ -2451,9 +2445,8 @@
       <c r="AI18" s="7"/>
       <c r="AJ18" s="7"/>
       <c r="AK18" s="7"/>
-      <c r="AL18" s="7"/>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
@@ -2491,9 +2484,8 @@
       <c r="AI19" s="7"/>
       <c r="AJ19" s="7"/>
       <c r="AK19" s="7"/>
-      <c r="AL19" s="7"/>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
@@ -2531,9 +2523,8 @@
       <c r="AI20" s="7"/>
       <c r="AJ20" s="7"/>
       <c r="AK20" s="7"/>
-      <c r="AL20" s="7"/>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
@@ -2571,9 +2562,8 @@
       <c r="AI21" s="7"/>
       <c r="AJ21" s="7"/>
       <c r="AK21" s="7"/>
-      <c r="AL21" s="7"/>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
@@ -2611,9 +2601,8 @@
       <c r="AI22" s="7"/>
       <c r="AJ22" s="7"/>
       <c r="AK22" s="7"/>
-      <c r="AL22" s="7"/>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
@@ -2651,9 +2640,8 @@
       <c r="AI23" s="7"/>
       <c r="AJ23" s="7"/>
       <c r="AK23" s="7"/>
-      <c r="AL23" s="7"/>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
@@ -2691,9 +2679,8 @@
       <c r="AI24" s="7"/>
       <c r="AJ24" s="7"/>
       <c r="AK24" s="7"/>
-      <c r="AL24" s="7"/>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
@@ -2731,9 +2718,8 @@
       <c r="AI25" s="7"/>
       <c r="AJ25" s="7"/>
       <c r="AK25" s="7"/>
-      <c r="AL25" s="7"/>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
@@ -2771,9 +2757,8 @@
       <c r="AI26" s="7"/>
       <c r="AJ26" s="7"/>
       <c r="AK26" s="7"/>
-      <c r="AL26" s="7"/>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
@@ -2811,9 +2796,8 @@
       <c r="AI27" s="7"/>
       <c r="AJ27" s="7"/>
       <c r="AK27" s="7"/>
-      <c r="AL27" s="7"/>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
@@ -2851,9 +2835,8 @@
       <c r="AI28" s="7"/>
       <c r="AJ28" s="7"/>
       <c r="AK28" s="7"/>
-      <c r="AL28" s="7"/>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
@@ -2891,9 +2874,8 @@
       <c r="AI29" s="7"/>
       <c r="AJ29" s="7"/>
       <c r="AK29" s="7"/>
-      <c r="AL29" s="7"/>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
@@ -2931,9 +2913,8 @@
       <c r="AI30" s="7"/>
       <c r="AJ30" s="7"/>
       <c r="AK30" s="7"/>
-      <c r="AL30" s="7"/>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
@@ -2971,9 +2952,8 @@
       <c r="AI31" s="7"/>
       <c r="AJ31" s="7"/>
       <c r="AK31" s="7"/>
-      <c r="AL31" s="7"/>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
@@ -3011,9 +2991,8 @@
       <c r="AI32" s="7"/>
       <c r="AJ32" s="7"/>
       <c r="AK32" s="7"/>
-      <c r="AL32" s="7"/>
-    </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
@@ -3051,9 +3030,8 @@
       <c r="AI33" s="7"/>
       <c r="AJ33" s="7"/>
       <c r="AK33" s="7"/>
-      <c r="AL33" s="7"/>
-    </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
@@ -3091,9 +3069,8 @@
       <c r="AI34" s="7"/>
       <c r="AJ34" s="7"/>
       <c r="AK34" s="7"/>
-      <c r="AL34" s="7"/>
-    </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
@@ -3131,9 +3108,8 @@
       <c r="AI35" s="7"/>
       <c r="AJ35" s="7"/>
       <c r="AK35" s="7"/>
-      <c r="AL35" s="7"/>
-    </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
@@ -3171,9 +3147,8 @@
       <c r="AI36" s="7"/>
       <c r="AJ36" s="7"/>
       <c r="AK36" s="7"/>
-      <c r="AL36" s="7"/>
-    </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
@@ -3211,9 +3186,8 @@
       <c r="AI37" s="7"/>
       <c r="AJ37" s="7"/>
       <c r="AK37" s="7"/>
-      <c r="AL37" s="7"/>
-    </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="8"/>
@@ -3251,9 +3225,8 @@
       <c r="AI38" s="7"/>
       <c r="AJ38" s="7"/>
       <c r="AK38" s="7"/>
-      <c r="AL38" s="7"/>
-    </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
@@ -3291,9 +3264,8 @@
       <c r="AI39" s="7"/>
       <c r="AJ39" s="7"/>
       <c r="AK39" s="7"/>
-      <c r="AL39" s="7"/>
-    </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="8"/>
@@ -3331,9 +3303,8 @@
       <c r="AI40" s="7"/>
       <c r="AJ40" s="7"/>
       <c r="AK40" s="7"/>
-      <c r="AL40" s="7"/>
-    </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
@@ -3371,9 +3342,8 @@
       <c r="AI41" s="7"/>
       <c r="AJ41" s="7"/>
       <c r="AK41" s="7"/>
-      <c r="AL41" s="7"/>
-    </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="8"/>
@@ -3411,9 +3381,8 @@
       <c r="AI42" s="7"/>
       <c r="AJ42" s="7"/>
       <c r="AK42" s="7"/>
-      <c r="AL42" s="7"/>
-    </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
@@ -3451,9 +3420,8 @@
       <c r="AI43" s="7"/>
       <c r="AJ43" s="7"/>
       <c r="AK43" s="7"/>
-      <c r="AL43" s="7"/>
-    </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="8"/>
@@ -3491,9 +3459,8 @@
       <c r="AI44" s="7"/>
       <c r="AJ44" s="7"/>
       <c r="AK44" s="7"/>
-      <c r="AL44" s="7"/>
-    </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
@@ -3531,9 +3498,8 @@
       <c r="AI45" s="7"/>
       <c r="AJ45" s="7"/>
       <c r="AK45" s="7"/>
-      <c r="AL45" s="7"/>
-    </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="8"/>
@@ -3571,9 +3537,8 @@
       <c r="AI46" s="7"/>
       <c r="AJ46" s="7"/>
       <c r="AK46" s="7"/>
-      <c r="AL46" s="7"/>
-    </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="8"/>
@@ -3611,9 +3576,8 @@
       <c r="AI47" s="7"/>
       <c r="AJ47" s="7"/>
       <c r="AK47" s="7"/>
-      <c r="AL47" s="7"/>
-    </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="8"/>
@@ -3651,9 +3615,8 @@
       <c r="AI48" s="7"/>
       <c r="AJ48" s="7"/>
       <c r="AK48" s="7"/>
-      <c r="AL48" s="7"/>
-    </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="8"/>
@@ -3691,9 +3654,8 @@
       <c r="AI49" s="7"/>
       <c r="AJ49" s="7"/>
       <c r="AK49" s="7"/>
-      <c r="AL49" s="7"/>
-    </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="8"/>
@@ -3731,9 +3693,8 @@
       <c r="AI50" s="7"/>
       <c r="AJ50" s="7"/>
       <c r="AK50" s="7"/>
-      <c r="AL50" s="7"/>
-    </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
@@ -3771,9 +3732,8 @@
       <c r="AI51" s="7"/>
       <c r="AJ51" s="7"/>
       <c r="AK51" s="7"/>
-      <c r="AL51" s="7"/>
-    </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="8"/>
@@ -3811,9 +3771,8 @@
       <c r="AI52" s="7"/>
       <c r="AJ52" s="7"/>
       <c r="AK52" s="7"/>
-      <c r="AL52" s="7"/>
-    </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="8"/>
@@ -3851,9 +3810,8 @@
       <c r="AI53" s="7"/>
       <c r="AJ53" s="7"/>
       <c r="AK53" s="7"/>
-      <c r="AL53" s="7"/>
-    </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="8"/>
@@ -3891,9 +3849,8 @@
       <c r="AI54" s="7"/>
       <c r="AJ54" s="7"/>
       <c r="AK54" s="7"/>
-      <c r="AL54" s="7"/>
-    </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="8"/>
@@ -3931,9 +3888,8 @@
       <c r="AI55" s="7"/>
       <c r="AJ55" s="7"/>
       <c r="AK55" s="7"/>
-      <c r="AL55" s="7"/>
-    </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="8"/>
@@ -3971,9 +3927,8 @@
       <c r="AI56" s="7"/>
       <c r="AJ56" s="7"/>
       <c r="AK56" s="7"/>
-      <c r="AL56" s="7"/>
-    </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="8"/>
@@ -4011,9 +3966,8 @@
       <c r="AI57" s="7"/>
       <c r="AJ57" s="7"/>
       <c r="AK57" s="7"/>
-      <c r="AL57" s="7"/>
-    </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="8"/>
@@ -4051,9 +4005,8 @@
       <c r="AI58" s="7"/>
       <c r="AJ58" s="7"/>
       <c r="AK58" s="7"/>
-      <c r="AL58" s="7"/>
-    </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="8"/>
@@ -4091,9 +4044,8 @@
       <c r="AI59" s="7"/>
       <c r="AJ59" s="7"/>
       <c r="AK59" s="7"/>
-      <c r="AL59" s="7"/>
-    </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="8"/>
@@ -4131,9 +4083,8 @@
       <c r="AI60" s="7"/>
       <c r="AJ60" s="7"/>
       <c r="AK60" s="7"/>
-      <c r="AL60" s="7"/>
-    </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
@@ -4171,9 +4122,8 @@
       <c r="AI61" s="7"/>
       <c r="AJ61" s="7"/>
       <c r="AK61" s="7"/>
-      <c r="AL61" s="7"/>
-    </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="8"/>
@@ -4211,9 +4161,8 @@
       <c r="AI62" s="7"/>
       <c r="AJ62" s="7"/>
       <c r="AK62" s="7"/>
-      <c r="AL62" s="7"/>
-    </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="8"/>
@@ -4251,9 +4200,8 @@
       <c r="AI63" s="7"/>
       <c r="AJ63" s="7"/>
       <c r="AK63" s="7"/>
-      <c r="AL63" s="7"/>
-    </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="8"/>
@@ -4291,9 +4239,8 @@
       <c r="AI64" s="7"/>
       <c r="AJ64" s="7"/>
       <c r="AK64" s="7"/>
-      <c r="AL64" s="7"/>
-    </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="8"/>
@@ -4331,9 +4278,8 @@
       <c r="AI65" s="7"/>
       <c r="AJ65" s="7"/>
       <c r="AK65" s="7"/>
-      <c r="AL65" s="7"/>
-    </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="9"/>
@@ -4371,9 +4317,8 @@
       <c r="AI66" s="7"/>
       <c r="AJ66" s="7"/>
       <c r="AK66" s="7"/>
-      <c r="AL66" s="7"/>
-    </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="9"/>
@@ -4411,9 +4356,8 @@
       <c r="AI67" s="7"/>
       <c r="AJ67" s="7"/>
       <c r="AK67" s="7"/>
-      <c r="AL67" s="7"/>
-    </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="9"/>
@@ -4451,9 +4395,8 @@
       <c r="AI68" s="7"/>
       <c r="AJ68" s="7"/>
       <c r="AK68" s="7"/>
-      <c r="AL68" s="7"/>
-    </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="9"/>
@@ -4491,9 +4434,8 @@
       <c r="AI69" s="7"/>
       <c r="AJ69" s="7"/>
       <c r="AK69" s="7"/>
-      <c r="AL69" s="7"/>
-    </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="9"/>
@@ -4531,9 +4473,8 @@
       <c r="AI70" s="7"/>
       <c r="AJ70" s="7"/>
       <c r="AK70" s="7"/>
-      <c r="AL70" s="7"/>
-    </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="9"/>
@@ -4571,9 +4512,8 @@
       <c r="AI71" s="7"/>
       <c r="AJ71" s="7"/>
       <c r="AK71" s="7"/>
-      <c r="AL71" s="7"/>
-    </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="9"/>
@@ -4611,9 +4551,8 @@
       <c r="AI72" s="7"/>
       <c r="AJ72" s="7"/>
       <c r="AK72" s="7"/>
-      <c r="AL72" s="7"/>
-    </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="9"/>
@@ -4651,9 +4590,8 @@
       <c r="AI73" s="7"/>
       <c r="AJ73" s="7"/>
       <c r="AK73" s="7"/>
-      <c r="AL73" s="7"/>
-    </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="9"/>
@@ -4691,9 +4629,8 @@
       <c r="AI74" s="7"/>
       <c r="AJ74" s="7"/>
       <c r="AK74" s="7"/>
-      <c r="AL74" s="7"/>
-    </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="9"/>
@@ -4731,9 +4668,8 @@
       <c r="AI75" s="7"/>
       <c r="AJ75" s="7"/>
       <c r="AK75" s="7"/>
-      <c r="AL75" s="7"/>
-    </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="9"/>
@@ -4771,9 +4707,8 @@
       <c r="AI76" s="7"/>
       <c r="AJ76" s="7"/>
       <c r="AK76" s="7"/>
-      <c r="AL76" s="7"/>
-    </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="9"/>
@@ -4811,9 +4746,8 @@
       <c r="AI77" s="7"/>
       <c r="AJ77" s="7"/>
       <c r="AK77" s="7"/>
-      <c r="AL77" s="7"/>
-    </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="9"/>
@@ -4851,9 +4785,8 @@
       <c r="AI78" s="7"/>
       <c r="AJ78" s="7"/>
       <c r="AK78" s="7"/>
-      <c r="AL78" s="7"/>
-    </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="9"/>
@@ -4891,9 +4824,8 @@
       <c r="AI79" s="7"/>
       <c r="AJ79" s="7"/>
       <c r="AK79" s="7"/>
-      <c r="AL79" s="7"/>
-    </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="9"/>
@@ -4931,9 +4863,8 @@
       <c r="AI80" s="7"/>
       <c r="AJ80" s="7"/>
       <c r="AK80" s="7"/>
-      <c r="AL80" s="7"/>
-    </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="9"/>
@@ -4971,9 +4902,8 @@
       <c r="AI81" s="7"/>
       <c r="AJ81" s="7"/>
       <c r="AK81" s="7"/>
-      <c r="AL81" s="7"/>
-    </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="9"/>
@@ -5011,9 +4941,8 @@
       <c r="AI82" s="7"/>
       <c r="AJ82" s="7"/>
       <c r="AK82" s="7"/>
-      <c r="AL82" s="7"/>
-    </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="9"/>
@@ -5051,9 +4980,8 @@
       <c r="AI83" s="7"/>
       <c r="AJ83" s="7"/>
       <c r="AK83" s="7"/>
-      <c r="AL83" s="7"/>
-    </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="9"/>
@@ -5091,9 +5019,8 @@
       <c r="AI84" s="7"/>
       <c r="AJ84" s="7"/>
       <c r="AK84" s="7"/>
-      <c r="AL84" s="7"/>
-    </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="9"/>
@@ -5131,9 +5058,8 @@
       <c r="AI85" s="7"/>
       <c r="AJ85" s="7"/>
       <c r="AK85" s="7"/>
-      <c r="AL85" s="7"/>
-    </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="9"/>
@@ -5171,9 +5097,8 @@
       <c r="AI86" s="7"/>
       <c r="AJ86" s="7"/>
       <c r="AK86" s="7"/>
-      <c r="AL86" s="7"/>
-    </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="9"/>
@@ -5211,9 +5136,8 @@
       <c r="AI87" s="7"/>
       <c r="AJ87" s="7"/>
       <c r="AK87" s="7"/>
-      <c r="AL87" s="7"/>
-    </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="9"/>
@@ -5251,9 +5175,8 @@
       <c r="AI88" s="7"/>
       <c r="AJ88" s="7"/>
       <c r="AK88" s="7"/>
-      <c r="AL88" s="7"/>
-    </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="9"/>
@@ -5291,9 +5214,8 @@
       <c r="AI89" s="7"/>
       <c r="AJ89" s="7"/>
       <c r="AK89" s="7"/>
-      <c r="AL89" s="7"/>
-    </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="9"/>
@@ -5331,9 +5253,8 @@
       <c r="AI90" s="7"/>
       <c r="AJ90" s="7"/>
       <c r="AK90" s="7"/>
-      <c r="AL90" s="7"/>
-    </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="9"/>
@@ -5371,9 +5292,8 @@
       <c r="AI91" s="7"/>
       <c r="AJ91" s="7"/>
       <c r="AK91" s="7"/>
-      <c r="AL91" s="7"/>
-    </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="9"/>
@@ -5411,9 +5331,8 @@
       <c r="AI92" s="7"/>
       <c r="AJ92" s="7"/>
       <c r="AK92" s="7"/>
-      <c r="AL92" s="7"/>
-    </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="9"/>
@@ -5451,9 +5370,8 @@
       <c r="AI93" s="7"/>
       <c r="AJ93" s="7"/>
       <c r="AK93" s="7"/>
-      <c r="AL93" s="7"/>
-    </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="9"/>
@@ -5491,9 +5409,8 @@
       <c r="AI94" s="7"/>
       <c r="AJ94" s="7"/>
       <c r="AK94" s="7"/>
-      <c r="AL94" s="7"/>
-    </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="9"/>
@@ -5531,9 +5448,8 @@
       <c r="AI95" s="7"/>
       <c r="AJ95" s="7"/>
       <c r="AK95" s="7"/>
-      <c r="AL95" s="7"/>
-    </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="9"/>
@@ -5571,9 +5487,8 @@
       <c r="AI96" s="7"/>
       <c r="AJ96" s="7"/>
       <c r="AK96" s="7"/>
-      <c r="AL96" s="7"/>
-    </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="9"/>
@@ -5611,9 +5526,8 @@
       <c r="AI97" s="7"/>
       <c r="AJ97" s="7"/>
       <c r="AK97" s="7"/>
-      <c r="AL97" s="7"/>
-    </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="9"/>
@@ -5651,9 +5565,8 @@
       <c r="AI98" s="7"/>
       <c r="AJ98" s="7"/>
       <c r="AK98" s="7"/>
-      <c r="AL98" s="7"/>
-    </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="9"/>
@@ -5691,9 +5604,8 @@
       <c r="AI99" s="7"/>
       <c r="AJ99" s="7"/>
       <c r="AK99" s="7"/>
-      <c r="AL99" s="7"/>
-    </row>
-    <row r="100" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="9"/>
@@ -5731,9 +5643,8 @@
       <c r="AI100" s="7"/>
       <c r="AJ100" s="7"/>
       <c r="AK100" s="7"/>
-      <c r="AL100" s="7"/>
-    </row>
-    <row r="101" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="9"/>
@@ -5771,9 +5682,8 @@
       <c r="AI101" s="7"/>
       <c r="AJ101" s="7"/>
       <c r="AK101" s="7"/>
-      <c r="AL101" s="7"/>
-    </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="9"/>
@@ -5811,9 +5721,8 @@
       <c r="AI102" s="7"/>
       <c r="AJ102" s="7"/>
       <c r="AK102" s="7"/>
-      <c r="AL102" s="7"/>
-    </row>
-    <row r="103" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="9"/>
@@ -5851,9 +5760,8 @@
       <c r="AI103" s="7"/>
       <c r="AJ103" s="7"/>
       <c r="AK103" s="7"/>
-      <c r="AL103" s="7"/>
-    </row>
-    <row r="104" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="9"/>
@@ -5891,9 +5799,8 @@
       <c r="AI104" s="7"/>
       <c r="AJ104" s="7"/>
       <c r="AK104" s="7"/>
-      <c r="AL104" s="7"/>
-    </row>
-    <row r="105" spans="1:38" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="9"/>
@@ -5931,7 +5838,6 @@
       <c r="AI105" s="7"/>
       <c r="AJ105" s="7"/>
       <c r="AK105" s="7"/>
-      <c r="AL105" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5951,15 +5857,15 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="96.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="2"/>
+    <col min="3" max="3" width="96.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -5970,7 +5876,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
@@ -5981,7 +5887,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>62</v>
       </c>
@@ -5992,7 +5898,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>86</v>
       </c>
@@ -6003,7 +5909,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>157</v>
       </c>
@@ -6014,7 +5920,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>158</v>
       </c>
@@ -6025,7 +5931,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>159</v>
       </c>
@@ -6036,7 +5942,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>160</v>
       </c>
@@ -6047,7 +5953,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>161</v>
       </c>
@@ -6058,7 +5964,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>64</v>
       </c>
@@ -6069,7 +5975,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>66</v>
       </c>
@@ -6080,7 +5986,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>68</v>
       </c>
@@ -6091,7 +5997,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>70</v>
       </c>
@@ -6102,7 +6008,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>72</v>
       </c>
@@ -6113,7 +6019,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
@@ -6124,7 +6030,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>76</v>
       </c>
@@ -6135,7 +6041,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>78</v>
       </c>
@@ -6146,7 +6052,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>80</v>
       </c>
@@ -6157,7 +6063,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>82</v>
       </c>
@@ -6168,7 +6074,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>84</v>
       </c>
@@ -6179,7 +6085,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>88</v>
       </c>
@@ -6190,7 +6096,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>91</v>
       </c>
@@ -6201,7 +6107,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>162</v>
       </c>
@@ -6212,7 +6118,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>163</v>
       </c>
@@ -6223,7 +6129,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>103</v>
       </c>
@@ -6231,7 +6137,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>105</v>
       </c>
@@ -6239,7 +6145,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>107</v>
       </c>
@@ -6247,57 +6153,57 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>87</v>
       </c>
